--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2445.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2445.xlsx
@@ -354,7 +354,7 @@
         <v>2.195950015330865</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.707937377123368</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2445.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2445.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040841392882524</v>
+        <v>2.084595918655396</v>
       </c>
       <c r="B1">
-        <v>2.195950015330865</v>
+        <v>2.285298585891724</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.500075340270996</v>
       </c>
       <c r="D1">
-        <v>2.707937377123368</v>
+        <v>3.654590606689453</v>
       </c>
       <c r="E1">
-        <v>0.9817841005024047</v>
+        <v>1.661850452423096</v>
       </c>
     </row>
   </sheetData>
